--- a/Base_Framework_FinBox/Test_Data/KhataBookData.xlsx
+++ b/Base_Framework_FinBox/Test_Data/KhataBookData.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalDetails1" sheetId="1" r:id="rId1"/>
     <sheet name="BasicDetails4" sheetId="2" r:id="rId2"/>
+    <sheet name="LoanOffer6" sheetId="3" r:id="rId3"/>
+    <sheet name="BusinessDetails7" sheetId="4" r:id="rId4"/>
+    <sheet name="PersonalDetails8" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Karthik</t>
   </si>
@@ -77,6 +80,54 @@
   </si>
   <si>
     <t>573201</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>241941</t>
+  </si>
+  <si>
+    <t>241940</t>
+  </si>
+  <si>
+    <t>133932</t>
+  </si>
+  <si>
+    <t>133931</t>
+  </si>
+  <si>
+    <t>70757</t>
+  </si>
+  <si>
+    <t>70756</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>Parth Bhandari</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>asddf</t>
+  </si>
+  <si>
+    <t>45bqgpm6876m4h</t>
+  </si>
+  <si>
+    <t>45bqgpm6876m4h6</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>THIR</t>
+  </si>
+  <si>
+    <t>THIRUMALE GOWDA H K</t>
   </si>
 </sst>
 </file>
@@ -458,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
@@ -540,4 +591,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>